--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H2">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I2">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J2">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>8.752643013199556</v>
+        <v>7.415032234176</v>
       </c>
       <c r="R2">
-        <v>78.77378711879599</v>
+        <v>66.73529010758401</v>
       </c>
       <c r="S2">
-        <v>0.01988033135805042</v>
+        <v>0.01666799133552508</v>
       </c>
       <c r="T2">
-        <v>0.01988033135805042</v>
+        <v>0.01666799133552508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H3">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I3">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J3">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>9.225609964108999</v>
+        <v>8.022934759518</v>
       </c>
       <c r="R3">
-        <v>83.03048967698099</v>
+        <v>72.20641283566199</v>
       </c>
       <c r="S3">
-        <v>0.02095460568767937</v>
+        <v>0.01803447413765551</v>
       </c>
       <c r="T3">
-        <v>0.02095460568767937</v>
+        <v>0.01803447413765551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H4">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I4">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J4">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>5.960566055195889</v>
+        <v>3.458581987266</v>
       </c>
       <c r="R4">
-        <v>53.645094496763</v>
+        <v>31.127237885394</v>
       </c>
       <c r="S4">
-        <v>0.01353854236716143</v>
+        <v>0.007774425353305144</v>
       </c>
       <c r="T4">
-        <v>0.01353854236716144</v>
+        <v>0.007774425353305147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H5">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I5">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J5">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>3.193618089798889</v>
+        <v>2.715929078814</v>
       </c>
       <c r="R5">
-        <v>28.74256280819</v>
+        <v>24.443361709326</v>
       </c>
       <c r="S5">
-        <v>0.007253830158561087</v>
+        <v>0.006105041883017912</v>
       </c>
       <c r="T5">
-        <v>0.007253830158561087</v>
+        <v>0.006105041883017913</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H6">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I6">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J6">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>4.649092581475222</v>
+        <v>3.242780566704</v>
       </c>
       <c r="R6">
-        <v>41.841833233277</v>
+        <v>29.185025100336</v>
       </c>
       <c r="S6">
-        <v>0.01055972474766739</v>
+        <v>0.007289332895912594</v>
       </c>
       <c r="T6">
-        <v>0.01055972474766739</v>
+        <v>0.007289332895912597</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.768273</v>
       </c>
       <c r="I7">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J7">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>96.49582781377644</v>
+        <v>94.00353661277512</v>
       </c>
       <c r="R7">
-        <v>868.4624503239879</v>
+        <v>846.031829514976</v>
       </c>
       <c r="S7">
-        <v>0.2191759710426014</v>
+        <v>0.2113072585913805</v>
       </c>
       <c r="T7">
-        <v>0.2191759710426014</v>
+        <v>0.2113072585913805</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.768273</v>
       </c>
       <c r="I8">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J8">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>101.710177055227</v>
@@ -948,10 +948,10 @@
         <v>915.3915934970429</v>
       </c>
       <c r="S8">
-        <v>0.2310195925156017</v>
+        <v>0.2286307458081653</v>
       </c>
       <c r="T8">
-        <v>0.2310195925156016</v>
+        <v>0.2286307458081653</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.768273</v>
       </c>
       <c r="I9">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J9">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>65.71383693673211</v>
+        <v>43.84592382077122</v>
       </c>
       <c r="R9">
-        <v>591.424532430589</v>
+        <v>394.613314386941</v>
       </c>
       <c r="S9">
-        <v>0.1492592410247935</v>
+        <v>0.09855971697254806</v>
       </c>
       <c r="T9">
-        <v>0.1492592410247935</v>
+        <v>0.09855971697254808</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.768273</v>
       </c>
       <c r="I10">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J10">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>35.2088872848411</v>
+        <v>34.43099511034877</v>
       </c>
       <c r="R10">
-        <v>316.87998556357</v>
+        <v>309.878955993139</v>
       </c>
       <c r="S10">
-        <v>0.07997176908909656</v>
+        <v>0.07739622837075559</v>
       </c>
       <c r="T10">
-        <v>0.07997176908909656</v>
+        <v>0.0773962283707556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.768273</v>
       </c>
       <c r="I11">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J11">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>51.25515076483678</v>
+        <v>41.11011686832267</v>
       </c>
       <c r="R11">
-        <v>461.296356883531</v>
+        <v>369.991051814904</v>
       </c>
       <c r="S11">
-        <v>0.1164184783356427</v>
+        <v>0.09240999231337413</v>
       </c>
       <c r="T11">
-        <v>0.1164184783356426</v>
+        <v>0.09240999231337416</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H12">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I12">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J12">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>3.077621612281333</v>
+        <v>19.87671152691556</v>
       </c>
       <c r="R12">
-        <v>27.698594510532</v>
+        <v>178.89040374224</v>
       </c>
       <c r="S12">
-        <v>0.00699036135194599</v>
+        <v>0.04468016389495525</v>
       </c>
       <c r="T12">
-        <v>0.006990361351945991</v>
+        <v>0.04468016389495526</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H13">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I13">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J13">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>3.243927185103</v>
+        <v>21.506253078605</v>
       </c>
       <c r="R13">
-        <v>29.195344665927</v>
+        <v>193.556277707445</v>
       </c>
       <c r="S13">
-        <v>0.007368099812134431</v>
+        <v>0.04834315329360565</v>
       </c>
       <c r="T13">
-        <v>0.007368099812134432</v>
+        <v>0.04834315329360566</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H14">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I14">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J14">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>2.095866001302333</v>
+        <v>9.271063736746109</v>
       </c>
       <c r="R14">
-        <v>18.862794011721</v>
+        <v>83.43957363071499</v>
       </c>
       <c r="S14">
-        <v>0.00476044898953684</v>
+        <v>0.02084009956463219</v>
       </c>
       <c r="T14">
-        <v>0.004760448989536842</v>
+        <v>0.02084009956463219</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H15">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I15">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J15">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>1.122946296303333</v>
+        <v>7.280310742053888</v>
       </c>
       <c r="R15">
-        <v>10.10651666673</v>
+        <v>65.52279667848499</v>
       </c>
       <c r="S15">
-        <v>0.00255060607797426</v>
+        <v>0.01636515561040838</v>
       </c>
       <c r="T15">
-        <v>0.002550606077974261</v>
+        <v>0.01636515561040839</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H16">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I16">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J16">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>1.634723109884333</v>
+        <v>8.692587143773332</v>
       </c>
       <c r="R16">
-        <v>14.712507988959</v>
+        <v>78.23328429396</v>
       </c>
       <c r="S16">
-        <v>0.003713031258575593</v>
+        <v>0.01953976228557978</v>
       </c>
       <c r="T16">
-        <v>0.003713031258575593</v>
+        <v>0.01953976228557979</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H17">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I17">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J17">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>10.12045665065956</v>
+        <v>9.496559507438223</v>
       </c>
       <c r="R17">
-        <v>91.08410985593599</v>
+        <v>85.469035566944</v>
       </c>
       <c r="S17">
-        <v>0.0229871173091919</v>
+        <v>0.02134698361225243</v>
       </c>
       <c r="T17">
-        <v>0.0229871173091919</v>
+        <v>0.02134698361225243</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H18">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I18">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J18">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>10.667336206544</v>
+        <v>10.275110742863</v>
       </c>
       <c r="R18">
-        <v>96.006025858896</v>
+        <v>92.47599668576699</v>
       </c>
       <c r="S18">
-        <v>0.02422927316628904</v>
+        <v>0.02309706167482805</v>
       </c>
       <c r="T18">
-        <v>0.02422927316628904</v>
+        <v>0.02309706167482806</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H19">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I19">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J19">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>6.892049668200888</v>
+        <v>4.429465525725444</v>
       </c>
       <c r="R19">
-        <v>62.02844701380801</v>
+        <v>39.865189731529</v>
       </c>
       <c r="S19">
-        <v>0.01565426933708432</v>
+        <v>0.009956840465711497</v>
       </c>
       <c r="T19">
-        <v>0.01565426933708432</v>
+        <v>0.0099568404657115</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H20">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I20">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J20">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>3.692698695448889</v>
+        <v>3.478337153554556</v>
       </c>
       <c r="R20">
-        <v>33.23428825904</v>
+        <v>31.305034381991</v>
       </c>
       <c r="S20">
-        <v>0.008387417784577095</v>
+        <v>0.007818832299914473</v>
       </c>
       <c r="T20">
-        <v>0.008387417784577095</v>
+        <v>0.007818832299914476</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H21">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I21">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J21">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>5.375626523870222</v>
+        <v>4.153084929197333</v>
       </c>
       <c r="R21">
-        <v>48.380638714832</v>
+        <v>37.377764362776</v>
       </c>
       <c r="S21">
-        <v>0.01220993891679336</v>
+        <v>0.009335574199732855</v>
       </c>
       <c r="T21">
-        <v>0.01220993891679336</v>
+        <v>0.009335574199732858</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H22">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I22">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J22">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>2.802967471553778</v>
+        <v>1.924542212913778</v>
       </c>
       <c r="R22">
-        <v>25.226707243984</v>
+        <v>17.320879916224</v>
       </c>
       <c r="S22">
-        <v>0.006366525178313632</v>
+        <v>0.004326111056112465</v>
       </c>
       <c r="T22">
-        <v>0.006366525178313631</v>
+        <v>0.004326111056112466</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H23">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I23">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J23">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>2.954431546636</v>
+        <v>2.082320902798</v>
       </c>
       <c r="R23">
-        <v>26.589883919724</v>
+        <v>18.740888125182</v>
       </c>
       <c r="S23">
-        <v>0.006710553376074489</v>
+        <v>0.004680776248773351</v>
       </c>
       <c r="T23">
-        <v>0.006710553376074489</v>
+        <v>0.004680776248773352</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H24">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I24">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J24">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>1.908826024272445</v>
+        <v>0.8976612401815555</v>
       </c>
       <c r="R24">
-        <v>17.179434218452</v>
+        <v>8.078951161634</v>
       </c>
       <c r="S24">
-        <v>0.004335615403276243</v>
+        <v>0.002017821271851227</v>
       </c>
       <c r="T24">
-        <v>0.004335615403276244</v>
+        <v>0.002017821271851228</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H25">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I25">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J25">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>1.022731946084444</v>
+        <v>0.7049086226984445</v>
       </c>
       <c r="R25">
-        <v>9.20458751476</v>
+        <v>6.344177604285999</v>
       </c>
       <c r="S25">
-        <v>0.002322984034417964</v>
+        <v>0.001584539411888376</v>
       </c>
       <c r="T25">
-        <v>0.002322984034417964</v>
+        <v>0.001584539411888376</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H26">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I26">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J26">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>1.488836601523111</v>
+        <v>0.8416508372106667</v>
       </c>
       <c r="R26">
-        <v>13.399529413708</v>
+        <v>7.574857534896</v>
       </c>
       <c r="S26">
-        <v>0.003381671676959355</v>
+        <v>0.001891917448113934</v>
       </c>
       <c r="T26">
-        <v>0.003381671676959355</v>
+        <v>0.001891917448113935</v>
       </c>
     </row>
   </sheetData>
